--- a/data/georgia_census/imereti/terjola/healthcare_staff.xlsx
+++ b/data/georgia_census/imereti/terjola/healthcare_staff.xlsx
@@ -1376,13 +1376,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8624245-B5AB-4DC2-8C10-6199981D65CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB681404-752B-403B-B0D6-524E236EB1E2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53344156-90F9-4759-8860-62A6811B69E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F06BDE3-427E-4377-9FD1-855F2837054D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFCA8A37-97FB-4874-9B04-DA289C8E7416}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0176D0F0-35E2-4679-BA05-E4C94D43D225}"/>
 </file>